--- a/categories.xlsx
+++ b/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52815a9a376fd39c/Desktop/NL3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{B9CF3986-FD30-420D-A5BB-856F8D5BECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{624B657E-092E-4101-85F9-00EC8D288C78}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{B9CF3986-FD30-420D-A5BB-856F8D5BECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F006DEB9-3643-42BB-AED2-B7117D3200E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89F24F9F-32F7-4893-AC35-A991E2E2D460}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>CATEGORIES</t>
   </si>
@@ -146,10 +146,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Base number</t>
-  </si>
-  <si>
-    <t>Basic number</t>
+    <t>Initial n°</t>
   </si>
 </sst>
 </file>
@@ -254,6 +251,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,17 +557,16 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="7">
         <v>44875</v>
@@ -598,7 +598,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="1">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="H2">
         <f>C2+C3+C15</f>
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
       </c>
       <c r="H4">
         <f>C8+C9+C11+C12+C26</f>
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>32</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="H5">
         <f>C27</f>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
       </c>
       <c r="H6">
         <f>C17+C10+C18+C20+C23+C24+C28+C16</f>
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>39</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="H7">
         <f>SUM(H2:H6)</f>
-        <v>1060</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="H8" s="6">
         <f>H7/1854</f>
-        <v>0.57173678532901839</v>
+        <v>0.54153182308522119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="3">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="4">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
       </c>
       <c r="C29">
         <f>SUM(C2:C28)</f>
-        <v>1470</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
       </c>
       <c r="C30" s="6">
         <f>C29/1854</f>
-        <v>0.79288025889967639</v>
+        <v>0.75512405609492983</v>
       </c>
     </row>
   </sheetData>
